--- a/Oblivious Load Balance Simulator/output/plot2.xlsx
+++ b/Oblivious Load Balance Simulator/output/plot2.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="plot2_step2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Experiment ID</t>
   </si>
@@ -81,24 +81,158 @@
   <si>
     <t xml:space="preserve">finite queue length(0.75*8=6) and different queue distribution load =0.9 Servers=20, numjobs =100000, Margin = 0.1, joblen = 1 </t>
   </si>
+  <si>
+    <t>total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -107,101 +241,16 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -209,45 +258,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -255,46 +270,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -304,7 +279,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -316,41 +351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -362,41 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -408,25 +375,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -436,6 +451,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,17 +520,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,45 +561,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -545,115 +569,106 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="21" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="31" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="32" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="33" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="34" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="35" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="37" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="39" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -662,7 +677,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -685,7 +700,12 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -763,11 +783,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="51218688"/>
-        <c:axId val="51223552"/>
+        <c:axId val="35834496"/>
+        <c:axId val="29570176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51218688"/>
+        <c:axId val="35834496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,17 +813,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51223552"/>
+        <c:crossAx val="29570176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51223552"/>
+        <c:axId val="29570176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,20 +837,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51218688"/>
+        <c:crossAx val="35834496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -832,7 +858,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -850,7 +876,12 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -928,11 +959,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92166016"/>
-        <c:axId val="92198400"/>
+        <c:axId val="29593984"/>
+        <c:axId val="29595904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92166016"/>
+        <c:axId val="29593984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -961,17 +992,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92198400"/>
+        <c:crossAx val="29595904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92198400"/>
+        <c:axId val="29595904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,20 +1016,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92166016"/>
+        <c:crossAx val="29593984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1000,7 +1037,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1022,10 +1059,16 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21845822397200351"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:x val="0.21845815325715864"/>
+          <c:y val="2.7777841638408338E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1103,11 +1146,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="110278144"/>
-        <c:axId val="110279680"/>
+        <c:axId val="29620096"/>
+        <c:axId val="29753344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110278144"/>
+        <c:axId val="29620096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,17 +1171,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110279680"/>
+        <c:crossAx val="29753344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110279680"/>
+        <c:axId val="29753344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,20 +1195,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110278144"/>
+        <c:crossAx val="29620096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1167,7 +1216,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1185,7 +1234,12 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1263,11 +1317,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="121581568"/>
-        <c:axId val="122145792"/>
+        <c:axId val="29773184"/>
+        <c:axId val="29787648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121581568"/>
+        <c:axId val="29773184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,17 +1342,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122145792"/>
+        <c:crossAx val="29787648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122145792"/>
+        <c:axId val="29787648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,20 +1366,725 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121581568"/>
+        <c:crossAx val="29773184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="he-IL"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1775" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Completion state distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34782608695652173"/>
+          <c:y val="3.0368763557483729E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4055013309671698E-2"/>
+          <c:y val="0.19956616052060738"/>
+          <c:w val="0.54037267080745344"/>
+          <c:h val="0.59219088937093278"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:areaChart>
+        <c:grouping val="percentStacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>plot2_step2!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HP-DROPPED_ON_FULL_QUEUE and LP-DROPPED_ON_FULL_QUEUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="993300"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>plot2_step2!$H$5:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>plot2_step2!$P$5:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.2463529999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13253915999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12395987999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1137483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10487631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.823664E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6147629999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>plot2_step2!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HP-COMPLETED and LP-DROPPED_ON_SIBLING_COMPLETION</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="008000"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>plot2_step2!$H$5:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>plot2_step2!$Q$5:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18505231</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27419093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31557893999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32589406999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30669132999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26287829000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>plot2_step2!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HP-COMPLETED and LP-DROPPED_ON_FULL_QUEUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFCC00"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>plot2_step2!$H$5:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>plot2_step2!$R$5:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12084526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17865639999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22250903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26894585999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33019163000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41393374999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>plot2_step2!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HP-DROPPED_ON_FULL_QUEUE and LP-COMPLETED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="CCFFFF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>plot2_step2!$H$5:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>plot2_step2!$S$5:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.91753647000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55648196000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41059679999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32673846000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26997587000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22830494000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19568995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>plot2_step2!$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HP-DROPPED_ON_SIBLING_COMPLETION and LP-COMPLETED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="660066"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>plot2_step2!$H$5:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>plot2_step2!$T$5:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0813100000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.259599E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.142527E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0307879999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6575459999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1350389999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="45624320"/>
+        <c:axId val="45642880"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="45624320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1475" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Distribution factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.28482697426796805"/>
+              <c:y val="0.88937093275488066"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1475" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45642880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45642880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1475" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45624320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="C0C0C0"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65927240461401948"/>
+          <c:y val="0.16485900216919741"/>
+          <c:w val="0.3336291038154392"/>
+          <c:h val="0.8047722342733189"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1355" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1475" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1342,8 +2107,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1025" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1372,8 +2139,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1026" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1390,20 +2159,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:colOff>1066800</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1027" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1420,20 +2191,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1028" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1442,6 +2215,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1514475</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1030" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1735,63 +2540,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:T11"/>
+  <dimension ref="A2:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:O11"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:21" ht="15">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+    <row r="3" spans="1:21" ht="15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1852,8 +2657,11 @@
       <c r="T4" t="s">
         <v>19</v>
       </c>
+      <c r="U4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1914,8 +2722,12 @@
       <c r="T5">
         <v>0</v>
       </c>
+      <c r="U5">
+        <f>SUM(P5:T5)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1976,8 +2788,12 @@
       <c r="T6">
         <v>5.0813100000000003E-3</v>
       </c>
+      <c r="U6">
+        <f t="shared" ref="U6:U11" si="0">SUM(P6:T6)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2038,8 +2854,12 @@
       <c r="T7">
         <v>1.259599E-2</v>
       </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2100,8 +2920,12 @@
       <c r="T8">
         <v>2.142527E-2</v>
       </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2162,8 +2986,12 @@
       <c r="T9">
         <v>3.0307879999999999E-2</v>
       </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0.99999998999999995</v>
+      </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2224,8 +3052,12 @@
       <c r="T10">
         <v>3.6575459999999997E-2</v>
       </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2285,12 +3117,17 @@
       </c>
       <c r="T11">
         <v>3.1350389999999999E-2</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>1.0000000099999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:P2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Oblivious Load Balance Simulator/output/plot2.xlsx
+++ b/Oblivious Load Balance Simulator/output/plot2.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="plot2_step2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>Experiment ID</t>
   </si>
@@ -79,10 +79,37 @@
     <t>FINITE</t>
   </si>
   <si>
-    <t xml:space="preserve">finite queue length(0.75*8=6) and different queue distribution load =0.9 Servers=20, numjobs =100000, Margin = 0.1, joblen = 1 </t>
+    <t xml:space="preserve">finite queue length(0.75*12=9) and different queue distribution load =0.95 Servers=20, numjobs =100000, Margin = 0.1, joblen = 1 </t>
   </si>
   <si>
-    <t>total</t>
+    <t>(0,9)</t>
+  </si>
+  <si>
+    <t>(1,8)</t>
+  </si>
+  <si>
+    <t>(2,7)</t>
+  </si>
+  <si>
+    <t>(3,6)</t>
+  </si>
+  <si>
+    <t>(4,5)</t>
+  </si>
+  <si>
+    <t>(5,4)</t>
+  </si>
+  <si>
+    <t>(6,3)</t>
+  </si>
+  <si>
+    <t>(7,2)</t>
+  </si>
+  <si>
+    <t>(8,1)</t>
+  </si>
+  <si>
+    <t>(9,0)</t>
   </si>
 </sst>
 </file>
@@ -93,7 +120,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -121,7 +148,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -129,7 +156,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -137,7 +164,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -146,7 +173,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -155,7 +182,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -164,7 +191,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -172,7 +199,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -181,7 +208,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -190,7 +217,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -199,7 +226,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -207,7 +234,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -215,7 +242,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -223,7 +250,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -232,7 +259,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -241,7 +268,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="major"/>
@@ -250,7 +277,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -258,13 +285,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,6 +471,48 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -614,11 +683,26 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" xfId="29"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" xfId="29" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" xfId="29" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" xfId="29" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" xfId="29" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="29" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="29" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" xfId="29" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,48 +711,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="21" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="31" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="32" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="33" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="34" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="35" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה6" xfId="18" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="37" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="39" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="הדגשה1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="הדגשה2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="הדגשה3" xfId="21" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="הדגשה4" xfId="22" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="הדגשה5" xfId="23" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="הדגשה6" xfId="24" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="הערה" xfId="37" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="חישוב" xfId="26" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="טוב" xfId="29" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="טקסט אזהרה" xfId="41" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="טקסט הסברי" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="כותרת" xfId="39" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="כותרת 1" xfId="30" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="כותרת 2" xfId="31" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="כותרת 3" xfId="32" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="כותרת 4" xfId="33" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="ניטראלי" xfId="36" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="סה&quot;כ" xfId="40" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="פלט" xfId="38" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="קלט" xfId="34" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="רע" xfId="25" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="תא מסומן" xfId="27" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="תא מקושר" xfId="35" builtinId="24" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -677,7 +761,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -690,16 +774,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>LP Queue average length/HP-LP queue</a:t>
+              <a:t>Average Queue Lengths</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> len</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -716,78 +796,175 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>Average LP Queue Length</c:v>
+          </c:tx>
+          <c:cat>
             <c:strRef>
-              <c:f>plot2_step2!$K$4:$K$11</c:f>
+              <c:f>(plot2_step2!$H$7,plot2_step2!$H$10,plot2_step2!$H$13,plot2_step2!$H$16,plot2_step2!$H$19,plot2_step2!$H$23,plot2_step2!$H$26,plot2_step2!$H$29,plot2_step2!$H$32,plot2_step2!$H$35)</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>LP Queue average length 2.13195375 3.48642162 2.6174452 1.89157925 1.24640439 0.64070872 0</c:v>
+                  <c:v>(0,9)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(1,8)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(2,7)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(3,6)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(4,5)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(5,4)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(6,3)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(7,2)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(8,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(9,0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>(0,6)</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>(1,5)</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>(2,4)</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>(3,3)</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>(4,2)</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>(5,1)</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>(6,0)</c:v>
-              </c:pt>
-            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plot2_step2!$K$5:$K$11</c:f>
+              <c:f>(plot2_step2!$K$7,plot2_step2!$K$10,plot2_step2!$K$13,plot2_step2!$K$16,plot2_step2!$K$19,plot2_step2!$K$23,plot2_step2!$K$26,plot2_step2!$K$29,plot2_step2!$K$32,plot2_step2!$K$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.1319537500000001</c:v>
+                  <c:v>3.61944533</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4864216200000002</c:v>
+                  <c:v>6.4599620049999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6174452000000001</c:v>
+                  <c:v>5.4365046800000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8915792499999999</c:v>
+                  <c:v>4.5124718349999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2464043899999999</c:v>
+                  <c:v>3.6760366549999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64070872000000001</c:v>
+                  <c:v>2.9104089133333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2.1918857750000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.469996225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74715085999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="35834496"/>
-        <c:axId val="29570176"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average HP Queue Length</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>(plot2_step2!$H$7,plot2_step2!$H$10,plot2_step2!$H$13,plot2_step2!$H$16,plot2_step2!$H$19,plot2_step2!$H$23,plot2_step2!$H$26,plot2_step2!$H$29,plot2_step2!$H$32,plot2_step2!$H$35)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>(0,9)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(1,8)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(2,7)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(3,6)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(4,5)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(5,4)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(6,3)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(7,2)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(8,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(9,0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(plot2_step2!$N$7,plot2_step2!$N$10,plot2_step2!$N$13,plot2_step2!$N$16,plot2_step2!$N$19,plot2_step2!$N$23,plot2_step2!$N$26,plot2_step2!$N$29,plot2_step2!$N$32,plot2_step2!$N$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39298940500000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84133960499999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2432852999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.650450325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0328980200000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3909702949999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7101605750000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0583104399999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.595359985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="196633344"/>
+        <c:axId val="196635264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="35834496"/>
+        <c:axId val="196633344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -807,12 +984,13 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Max len, LP Max len)</a:t>
+                  <a:t> Capacity, LP Capcity)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -822,35 +1000,55 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="29570176"/>
+        <c:crossAx val="196635264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29570176"/>
+        <c:axId val="196635264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Length</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35834496"/>
+        <c:crossAx val="196633344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -858,7 +1056,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -871,11 +1069,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>LP Jobs average time in system/HP-LP queue len</a:t>
+              <a:t>Jobs</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Average Waiting Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -892,78 +1096,175 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>LP Jobs Average Waiting Time</c:v>
+          </c:tx>
+          <c:cat>
             <c:strRef>
-              <c:f>plot2_step2!$L$4</c:f>
+              <c:f>(plot2_step2!$H$7,plot2_step2!$H$10,plot2_step2!$H$13,plot2_step2!$H$16,plot2_step2!$H$19,plot2_step2!$H$23,plot2_step2!$H$26,plot2_step2!$H$29,plot2_step2!$H$32,plot2_step2!$H$35)</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>LP Jobs average time in system</c:v>
+                  <c:v>(0,9)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(1,8)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(2,7)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(3,6)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(4,5)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(5,4)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(6,3)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(7,2)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(8,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(9,0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>(0,6)</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>(1,5)</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>(2,4)</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>(3,3)</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>(4,2)</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>(5,1)</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>(6,0)</c:v>
-              </c:pt>
-            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plot2_step2!$L$5:$L$11</c:f>
+              <c:f>(plot2_step2!$L$7,plot2_step2!$L$10,plot2_step2!$L$13,plot2_step2!$L$16,plot2_step2!$L$19,plot2_step2!$L$23,plot2_step2!$L$26,plot2_step2!$L$29,plot2_step2!$L$32,plot2_step2!$L$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3604665200000001</c:v>
+                  <c:v>3.8026387350000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9760846999999999</c:v>
+                  <c:v>6.8793920150000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9207293999999999</c:v>
+                  <c:v>5.7263825500000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0996496100000002</c:v>
+                  <c:v>4.7410406700000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3669916200000001</c:v>
+                  <c:v>3.8560542849999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70175206000000001</c:v>
+                  <c:v>3.0455720133333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2.2675206399999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5293655450000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.779084585</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="29593984"/>
-        <c:axId val="29595904"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HP Jobs Average Waiting Time</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>(plot2_step2!$H$7,plot2_step2!$H$10,plot2_step2!$H$13,plot2_step2!$H$16,plot2_step2!$H$19,plot2_step2!$H$23,plot2_step2!$H$26,plot2_step2!$H$29,plot2_step2!$H$32,plot2_step2!$H$35)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>(0,9)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(1,8)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(2,7)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(3,6)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(4,5)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(5,4)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(6,3)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(7,2)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(8,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(9,0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(plot2_step2!$O$7,plot2_step2!$O$10,plot2_step2!$O$13,plot2_step2!$O$16,plot2_step2!$O$19,plot2_step2!$O$23,plot2_step2!$O$26,plot2_step2!$O$29,plot2_step2!$O$32,plot2_step2!$O$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41352883000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88264738500000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3071960149999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7369610299999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1439154633333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.499352885</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8466303700000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2156515350000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7891651199999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="136909568"/>
+        <c:axId val="136911488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29593984"/>
+        <c:axId val="136909568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,11 +1280,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>(HP Max len,</a:t>
+                  <a:t>(HP Capacity,</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> LP Max len</a:t>
+                  <a:t> LP Capacity</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -992,6 +1293,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -1001,35 +1303,55 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="29595904"/>
+        <c:crossAx val="136911488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29595904"/>
+        <c:axId val="136911488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="he-IL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="29593984"/>
+        <c:crossAx val="136909568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1037,7 +1359,8 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1050,477 +1373,103 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>HP Queue average length/HP-LP queue len</a:t>
+              <a:t>Jobs Completion States Distribution</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21845815325715864"/>
-          <c:y val="2.7777841638408338E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>plot2_step2!$N$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HP Queue average length</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>(0,6)</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>(1,5)</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>(2,4)</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>(3,3)</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>(4,2)</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>(5,1)</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>(6,0)</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>plot2_step2!$N$5:$N$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.37169579000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.77284620999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1194345000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.43247978</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7411257899999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1215729400000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="29620096"/>
-        <c:axId val="29753344"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="29620096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>(HP Max len, LP Max len)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="29753344"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="29753344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="29620096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="he-IL"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>HP Jobs average time in system/HP-LP queue len</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>plot2_step2!$O$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HP Jobs average time in system</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>(0,6)</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>(1,5)</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>(2,4)</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>(3,3)</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>(4,2)</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>(5,1)</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>(6,0)</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>plot2_step2!$O$5:$O$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.41468159999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85484696999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2421887199999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5792763400000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9214798399999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3520145499999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="29773184"/>
-        <c:axId val="29787648"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="29773184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>(HP Max len, LP Max len)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="29787648"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="29787648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="29773184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="he-IL"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1775" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>Completion state distribution</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34782608695652173"/>
-          <c:y val="3.0368763557483729E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.4055013309671698E-2"/>
-          <c:y val="0.19956616052060738"/>
-          <c:w val="0.54037267080745344"/>
-          <c:h val="0.59219088937093278"/>
-        </c:manualLayout>
-      </c:layout>
       <c:areaChart>
         <c:grouping val="percentStacked"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>plot2_step2!$P$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HP-DROPPED_ON_FULL_QUEUE and LP-DROPPED_ON_FULL_QUEUE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>HP Jobs dropped-on-full-queue &amp; LP Jobs dropped-on-full-queue</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="993300"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>plot2_step2!$H$5:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+            <c:strRef>
+              <c:f>(plot2_step2!$H$7,plot2_step2!$H$10,plot2_step2!$H$13,plot2_step2!$H$16,plot2_step2!$H$19,plot2_step2!$H$23,plot2_step2!$H$26,plot2_step2!$H$29,plot2_step2!$H$32,plot2_step2!$H$35)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>(0,9)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>(1,8)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>(2,7)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>(3,6)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6</c:v>
+                  <c:v>(4,5)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
+                  <c:v>(5,4)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>(6,3)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(7,2)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(8,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(9,0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plot2_step2!$P$5:$P$11</c:f>
+              <c:f>(plot2_step2!$P$7,plot2_step2!$P$10,plot2_step2!$P$13,plot2_step2!$P$16,plot2_step2!$P$19,plot2_step2!$P$23,plot2_step2!$P$26,plot2_step2!$P$29,plot2_step2!$P$32,plot2_step2!$P$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.2463529999999993E-2</c:v>
+                  <c:v>6.897586E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13253915999999999</c:v>
+                  <c:v>0.20965887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12395987999999999</c:v>
+                  <c:v>0.12960162</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1137483</c:v>
+                  <c:v>9.7844975000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10487631</c:v>
+                  <c:v>7.8363479999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.823664E-2</c:v>
+                  <c:v>6.6621666666666676E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6147629999999998E-2</c:v>
+                  <c:v>5.8925740000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4781935000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4663185000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8325854999999991E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1530,83 +1479,88 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>plot2_step2!$Q$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HP-COMPLETED and LP-DROPPED_ON_SIBLING_COMPLETION</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>HP Jobs completed &amp; LP Jobs dropped-on-sybling-completion</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="008000"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>plot2_step2!$H$5:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+            <c:strRef>
+              <c:f>(plot2_step2!$H$7,plot2_step2!$H$10,plot2_step2!$H$13,plot2_step2!$H$16,plot2_step2!$H$19,plot2_step2!$H$23,plot2_step2!$H$26,plot2_step2!$H$29,plot2_step2!$H$32,plot2_step2!$H$35)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>(0,9)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>(1,8)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>(2,7)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>(3,6)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6</c:v>
+                  <c:v>(4,5)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
+                  <c:v>(5,4)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>(6,3)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(7,2)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(8,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(9,0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plot2_step2!$Q$5:$Q$11</c:f>
+              <c:f>(plot2_step2!$Q$7,plot2_step2!$Q$10,plot2_step2!$Q$13,plot2_step2!$Q$16,plot2_step2!$Q$19,plot2_step2!$Q$23,plot2_step2!$Q$26,plot2_step2!$Q$29,plot2_step2!$Q$32,plot2_step2!$Q$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18505231</c:v>
+                  <c:v>0.34184176999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27419093</c:v>
+                  <c:v>0.42286779000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31557893999999997</c:v>
+                  <c:v>0.45905573999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32589406999999998</c:v>
+                  <c:v>0.465380815</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30669132999999998</c:v>
+                  <c:v>0.43957632666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26287829000000001</c:v>
+                  <c:v>0.37679221000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27682221000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14650808500000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1616,83 +1570,81 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
+            <c:v>HP Job completed &amp; LP Job dropped-on-full-queue</c:v>
+          </c:tx>
+          <c:cat>
             <c:strRef>
-              <c:f>plot2_step2!$R$4</c:f>
+              <c:f>(plot2_step2!$H$7,plot2_step2!$H$10,plot2_step2!$H$13,plot2_step2!$H$16,plot2_step2!$H$19,plot2_step2!$H$23,plot2_step2!$H$26,plot2_step2!$H$29,plot2_step2!$H$32,plot2_step2!$H$35)</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>HP-COMPLETED and LP-DROPPED_ON_FULL_QUEUE</c:v>
+                  <c:v>(0,9)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(1,8)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(2,7)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(3,6)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(4,5)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(5,4)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(6,3)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(7,2)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(8,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(9,0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFCC00"/>
-            </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>plot2_step2!$H$5:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plot2_step2!$R$5:$R$11</c:f>
+              <c:f>(plot2_step2!$R$7,plot2_step2!$R$10,plot2_step2!$R$13,plot2_step2!$R$16,plot2_step2!$R$19,plot2_step2!$R$23,plot2_step2!$R$26,plot2_step2!$R$29,plot2_step2!$R$32,plot2_step2!$R$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12084526</c:v>
+                  <c:v>0.25664070500000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17865639999999999</c:v>
+                  <c:v>0.31871022999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22250903</c:v>
+                  <c:v>0.33796672500000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26894585999999998</c:v>
+                  <c:v>0.36285453499999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33019163000000001</c:v>
+                  <c:v>0.40820926999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41393374999999999</c:v>
+                  <c:v>0.48446230499999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59453868500000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73877798500000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93167414500000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,83 +1654,88 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>plot2_step2!$S$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HP-DROPPED_ON_FULL_QUEUE and LP-COMPLETED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>HP Job dropped-on-full-queue &amp; LP Job completed</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="CCFFFF"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>plot2_step2!$H$5:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+            <c:strRef>
+              <c:f>(plot2_step2!$H$7,plot2_step2!$H$10,plot2_step2!$H$13,plot2_step2!$H$16,plot2_step2!$H$19,plot2_step2!$H$23,plot2_step2!$H$26,plot2_step2!$H$29,plot2_step2!$H$32,plot2_step2!$H$35)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>(0,9)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>(1,8)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>(2,7)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>(3,6)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6</c:v>
+                  <c:v>(4,5)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
+                  <c:v>(5,4)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>(6,3)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(7,2)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(8,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(9,0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plot2_step2!$S$5:$S$11</c:f>
+              <c:f>(plot2_step2!$S$7,plot2_step2!$S$10,plot2_step2!$S$13,plot2_step2!$S$16,plot2_step2!$S$19,plot2_step2!$S$23,plot2_step2!$S$26,plot2_step2!$S$29,plot2_step2!$S$32,plot2_step2!$S$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.91753647000000005</c:v>
+                  <c:v>0.93102414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55648196000000005</c:v>
+                  <c:v>0.19004613000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41059679999999998</c:v>
+                  <c:v>0.12180777000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32673846000000001</c:v>
+                  <c:v>9.2601160000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26997587000000001</c:v>
+                  <c:v>7.0138375000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22830494000000001</c:v>
+                  <c:v>5.0533963333333327E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19568995</c:v>
+                  <c:v>3.3937925000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0062750000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8813700000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1788,303 +1745,132 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>plot2_step2!$T$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HP-DROPPED_ON_SIBLING_COMPLETION and LP-COMPLETED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>HP Job dropped-on-sybling-completion &amp; LP Job completed</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="660066"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
           </c:spPr>
           <c:cat>
-            <c:numRef>
-              <c:f>plot2_step2!$H$5:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+            <c:strRef>
+              <c:f>(plot2_step2!$H$7,plot2_step2!$H$10,plot2_step2!$H$13,plot2_step2!$H$16,plot2_step2!$H$19,plot2_step2!$H$23,plot2_step2!$H$26,plot2_step2!$H$29,plot2_step2!$H$32,plot2_step2!$H$35)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>(0,9)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>(1,8)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>(2,7)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>(3,6)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6</c:v>
+                  <c:v>(4,5)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
+                  <c:v>(5,4)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>(6,3)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(7,2)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(8,1)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(9,0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plot2_step2!$T$5:$T$11</c:f>
+              <c:f>(plot2_step2!$T$7,plot2_step2!$T$10,plot2_step2!$T$13,plot2_step2!$T$16,plot2_step2!$T$19,plot2_step2!$T$23,plot2_step2!$T$26,plot2_step2!$T$29,plot2_step2!$T$32,plot2_step2!$T$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0813100000000003E-3</c:v>
+                  <c:v>1.8125200000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.259599E-2</c:v>
+                  <c:v>7.01259E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.142527E-2</c:v>
+                  <c:v>1.253141E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0307879999999999E-2</c:v>
+                  <c:v>2.3262789999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6575459999999997E-2</c:v>
+                  <c:v>3.5058773333333335E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1350389999999999E-2</c:v>
+                  <c:v>4.5881820000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3794420000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0169375000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="45624320"/>
-        <c:axId val="45642880"/>
+        <c:axId val="136947584"/>
+        <c:axId val="136949120"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="45624320"/>
+        <c:axId val="136947584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1475" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="Arial"/>
-                    <a:cs typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>Distribution factor</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.28482697426796805"/>
-              <c:y val="0.88937093275488066"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1475" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="45642880"/>
+        <c:crossAx val="136949120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45642880"/>
+        <c:axId val="136949120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1475" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="he-IL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="45624320"/>
+        <c:crossAx val="136947584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="C0C0C0"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="808080"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="tr"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.65927240461401948"/>
-          <c:y val="0.16485900216919741"/>
-          <c:w val="0.3336291038154392"/>
-          <c:h val="0.8047722342733189"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1355" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="he-IL"/>
-        </a:p>
-      </c:txPr>
+      <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="3175">
-      <a:solidFill>
-        <a:srgbClr val="000000"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1475" b="0" i="0" u="none" strike="noStrike" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Arial"/>
-          <a:ea typeface="Arial"/>
-          <a:cs typeface="Arial"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="he-IL"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
-    <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2095,15 +1881,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2127,15 +1913,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2160,21 +1946,19 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1027" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="7" name="תרשים 6"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2188,75 +1972,11 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1028" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1514475</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1030" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2540,45 +2260,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:U11"/>
+  <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="56" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="1:21" ht="15">
+    <row r="3" spans="1:20">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2596,7 +2327,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2624,44 +2355,41 @@
       <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U4" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2681,53 +2409,49 @@
         <v>20</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>2.1319537500000001</v>
-      </c>
-      <c r="L5">
-        <v>2.3604665200000001</v>
-      </c>
-      <c r="M5">
+        <v>0.95</v>
+      </c>
+      <c r="J5" s="9">
+        <v>9</v>
+      </c>
+      <c r="K5" s="9">
+        <v>3.6231804599999999</v>
+      </c>
+      <c r="L5" s="9">
+        <v>3.8062156200000001</v>
+      </c>
+      <c r="M5" s="15">
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="15">
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="15">
         <v>0</v>
       </c>
-      <c r="P5">
-        <v>8.2463529999999993E-2</v>
-      </c>
-      <c r="Q5">
+      <c r="P5" s="3">
+        <v>6.8888359999999996E-2</v>
+      </c>
+      <c r="Q5" s="7">
         <v>0</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="5">
         <v>0</v>
       </c>
-      <c r="S5">
-        <v>0.91753647000000005</v>
-      </c>
-      <c r="T5">
+      <c r="S5" s="11">
+        <v>0.93111164000000002</v>
+      </c>
+      <c r="T5" s="13">
         <v>0</v>
       </c>
-      <c r="U5">
-        <f>SUM(P5:T5)</f>
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2747,121 +2471,121 @@
         <v>20</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H6">
+        <v>0.05</v>
+      </c>
+      <c r="I6">
+        <v>0.95</v>
+      </c>
+      <c r="J6" s="9">
+        <v>9</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3.6157102000000001</v>
+      </c>
+      <c r="L6" s="9">
+        <v>3.7990618500000002</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>6.9063360000000004E-2</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0.93093663999999998</v>
+      </c>
+      <c r="T6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="2" customFormat="1">
+      <c r="B7" s="2">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.1</v>
       </c>
-      <c r="I6">
-        <v>0.9</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>3.4864216200000002</v>
-      </c>
-      <c r="L6">
-        <v>3.9760846999999999</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0.37169579000000003</v>
-      </c>
-      <c r="O6">
-        <v>0.41468159999999998</v>
-      </c>
-      <c r="P6">
-        <v>0.13253915999999999</v>
-      </c>
-      <c r="Q6">
-        <v>0.18505231</v>
-      </c>
-      <c r="R6">
-        <v>0.12084526</v>
-      </c>
-      <c r="S6">
-        <v>0.55648196000000005</v>
-      </c>
-      <c r="T6">
-        <v>5.0813100000000003E-3</v>
-      </c>
-      <c r="U6">
-        <f t="shared" ref="U6:U11" si="0">SUM(P6:T6)</f>
-        <v>1</v>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J7" s="10">
+        <f>AVERAGE(J5:J6)</f>
+        <v>9</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" ref="K7:T7" si="0">AVERAGE(K5:K6)</f>
+        <v>3.61944533</v>
+      </c>
+      <c r="L7" s="10">
+        <f t="shared" si="0"/>
+        <v>3.8026387350000004</v>
+      </c>
+      <c r="M7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="0"/>
+        <v>6.897586E-2</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.93102414</v>
+      </c>
+      <c r="T7" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7">
+    <row r="8" spans="1:20">
+      <c r="A8">
         <v>2</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>100000</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0.1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>0.3</v>
-      </c>
-      <c r="I7">
-        <v>0.9</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>2.6174452000000001</v>
-      </c>
-      <c r="L7">
-        <v>2.9207293999999999</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>0.77284620999999998</v>
-      </c>
-      <c r="O7">
-        <v>0.85484696999999998</v>
-      </c>
-      <c r="P7">
-        <v>0.12395987999999999</v>
-      </c>
-      <c r="Q7">
-        <v>0.27419093</v>
-      </c>
-      <c r="R7">
-        <v>0.17865639999999999</v>
-      </c>
-      <c r="S7">
-        <v>0.41059679999999998</v>
-      </c>
-      <c r="T7">
-        <v>1.259599E-2</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8">
-        <v>3</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -2879,55 +2603,51 @@
         <v>20</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I8">
-        <v>0.9</v>
-      </c>
-      <c r="J8">
+        <v>0.95</v>
+      </c>
+      <c r="J8" s="9">
+        <v>8</v>
+      </c>
+      <c r="K8" s="9">
+        <v>6.4551046400000001</v>
+      </c>
+      <c r="L8" s="9">
+        <v>6.8382513500000002</v>
+      </c>
+      <c r="M8" s="15">
+        <v>1</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0.39481092000000001</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0.41364367000000002</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.20940262000000001</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0.34424179999999999</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.25621569999999999</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0.18845236000000001</v>
+      </c>
+      <c r="T8" s="13">
+        <v>1.6875200000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
         <v>3</v>
-      </c>
-      <c r="K8">
-        <v>1.8915792499999999</v>
-      </c>
-      <c r="L8">
-        <v>2.0996496100000002</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>1.1194345000000001</v>
-      </c>
-      <c r="O8">
-        <v>1.2421887199999999</v>
-      </c>
-      <c r="P8">
-        <v>0.1137483</v>
-      </c>
-      <c r="Q8">
-        <v>0.31557893999999997</v>
-      </c>
-      <c r="R8">
-        <v>0.22250903</v>
-      </c>
-      <c r="S8">
-        <v>0.32673846000000001</v>
-      </c>
-      <c r="T8">
-        <v>2.142527E-2</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9">
-        <v>4</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -2945,121 +2665,121 @@
         <v>20</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
       <c r="I9">
-        <v>0.9</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>1.2464043899999999</v>
-      </c>
-      <c r="L9">
-        <v>1.3669916200000001</v>
-      </c>
-      <c r="M9">
+        <v>0.95</v>
+      </c>
+      <c r="J9" s="9">
+        <v>8</v>
+      </c>
+      <c r="K9" s="9">
+        <v>6.4648193699999998</v>
+      </c>
+      <c r="L9" s="9">
+        <v>6.92053268</v>
+      </c>
+      <c r="M9" s="15">
+        <v>1</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0.39116789000000002</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0.41341399000000001</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.20991512000000001</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0.33944173999999999</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.25706571</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0.1916399</v>
+      </c>
+      <c r="T9" s="13">
+        <v>1.9375200000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="2" customFormat="1">
+      <c r="B10" s="2">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J10" s="10">
+        <f>AVERAGE(J8:J9)</f>
+        <v>8</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" ref="K10:T10" si="1">AVERAGE(K8:K9)</f>
+        <v>6.4599620049999995</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="1"/>
+        <v>6.8793920150000005</v>
+      </c>
+      <c r="M10" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="16">
+        <f t="shared" si="1"/>
+        <v>0.39298940500000001</v>
+      </c>
+      <c r="O10" s="16">
+        <f t="shared" si="1"/>
+        <v>0.41352883000000001</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.20965887</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="1"/>
+        <v>0.34184176999999999</v>
+      </c>
+      <c r="R10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.25664070500000002</v>
+      </c>
+      <c r="S10" s="12">
+        <f t="shared" si="1"/>
+        <v>0.19004613000000001</v>
+      </c>
+      <c r="T10" s="14">
+        <f t="shared" si="1"/>
+        <v>1.8125200000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
         <v>4</v>
-      </c>
-      <c r="N9">
-        <v>1.43247978</v>
-      </c>
-      <c r="O9">
-        <v>1.5792763400000001</v>
-      </c>
-      <c r="P9">
-        <v>0.10487631</v>
-      </c>
-      <c r="Q9">
-        <v>0.32589406999999998</v>
-      </c>
-      <c r="R9">
-        <v>0.26894585999999998</v>
-      </c>
-      <c r="S9">
-        <v>0.26997587000000001</v>
-      </c>
-      <c r="T9">
-        <v>3.0307879999999999E-2</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>0.99999998999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>100000</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0.1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>0.8</v>
-      </c>
-      <c r="I10">
-        <v>0.9</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0.64070872000000001</v>
-      </c>
-      <c r="L10">
-        <v>0.70175206000000001</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10">
-        <v>1.7411257899999999</v>
-      </c>
-      <c r="O10">
-        <v>1.9214798399999999</v>
-      </c>
-      <c r="P10">
-        <v>9.823664E-2</v>
-      </c>
-      <c r="Q10">
-        <v>0.30669132999999998</v>
-      </c>
-      <c r="R10">
-        <v>0.33019163000000001</v>
-      </c>
-      <c r="S10">
-        <v>0.22830494000000001</v>
-      </c>
-      <c r="T10">
-        <v>3.6575459999999997E-2</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
-        <v>6</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -3077,50 +2797,1598 @@
         <v>20</v>
       </c>
       <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>0.95</v>
+      </c>
+      <c r="J11" s="9">
+        <v>7</v>
+      </c>
+      <c r="K11" s="9">
+        <v>5.4483801500000002</v>
+      </c>
+      <c r="L11" s="9">
+        <v>5.7351114699999997</v>
+      </c>
+      <c r="M11" s="15">
+        <v>2</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0.84312920000000002</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0.88327299000000004</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.12963912</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0.42051776000000002</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.3203915</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0.12261403</v>
+      </c>
+      <c r="T11" s="13">
+        <v>6.8375900000000002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>100000</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>0.25</v>
+      </c>
+      <c r="I12">
+        <v>0.95</v>
+      </c>
+      <c r="J12" s="9">
+        <v>7</v>
+      </c>
+      <c r="K12" s="9">
+        <v>5.42462921</v>
+      </c>
+      <c r="L12" s="9">
+        <v>5.71765363</v>
+      </c>
+      <c r="M12" s="15">
+        <v>2</v>
+      </c>
+      <c r="N12" s="15">
+        <v>0.83955000999999996</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0.88202177999999998</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.12956412</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0.42521782000000002</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.31702896000000003</v>
+      </c>
+      <c r="S12" s="11">
+        <v>0.12100151000000001</v>
+      </c>
+      <c r="T12" s="13">
+        <v>7.1875899999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="2" customFormat="1">
+      <c r="B13" s="2">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J13" s="10">
+        <f>AVERAGE(J11:J12)</f>
+        <v>7</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" ref="K13:T13" si="2">AVERAGE(K11:K12)</f>
+        <v>5.4365046800000005</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="2"/>
+        <v>5.7263825500000003</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N13" s="16">
+        <f t="shared" si="2"/>
+        <v>0.84133960499999993</v>
+      </c>
+      <c r="O13" s="16">
+        <f t="shared" si="2"/>
+        <v>0.88264738500000006</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.12960162</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="2"/>
+        <v>0.42286779000000002</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.31871022999999998</v>
+      </c>
+      <c r="S13" s="12">
+        <f t="shared" si="2"/>
+        <v>0.12180777000000001</v>
+      </c>
+      <c r="T13" s="14">
+        <f t="shared" si="2"/>
+        <v>7.01259E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
         <v>6</v>
       </c>
-      <c r="H11">
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>100000</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>0.3</v>
+      </c>
+      <c r="I14">
+        <v>0.95</v>
+      </c>
+      <c r="J14" s="9">
+        <v>6</v>
+      </c>
+      <c r="K14" s="9">
+        <v>4.4980012699999996</v>
+      </c>
+      <c r="L14" s="9">
+        <v>4.7444185799999996</v>
+      </c>
+      <c r="M14" s="15">
+        <v>3</v>
+      </c>
+      <c r="N14" s="15">
+        <v>1.2427741699999999</v>
+      </c>
+      <c r="O14" s="15">
+        <v>1.31085484</v>
+      </c>
+      <c r="P14" s="3">
+        <v>9.9188739999999997E-2</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0.45891823999999998</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.33541669000000002</v>
+      </c>
+      <c r="S14" s="11">
+        <v>9.3276170000000005E-2</v>
+      </c>
+      <c r="T14" s="13">
+        <v>1.3200170000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>100000</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>0.35</v>
+      </c>
+      <c r="I15">
+        <v>0.95</v>
+      </c>
+      <c r="J15" s="9">
+        <v>6</v>
+      </c>
+      <c r="K15" s="9">
+        <v>4.5269424000000003</v>
+      </c>
+      <c r="L15" s="9">
+        <v>4.7376627600000001</v>
+      </c>
+      <c r="M15" s="15">
+        <v>3</v>
+      </c>
+      <c r="N15" s="15">
+        <v>1.24379643</v>
+      </c>
+      <c r="O15" s="15">
+        <v>1.3035371899999999</v>
+      </c>
+      <c r="P15" s="3">
+        <v>9.6501210000000004E-2</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0.45919324</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.34051675999999997</v>
+      </c>
+      <c r="S15" s="11">
+        <v>9.1926149999999998E-2</v>
+      </c>
+      <c r="T15" s="13">
+        <v>1.1862650000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="2" customFormat="1">
+      <c r="B16" s="2">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J16" s="10">
+        <f>AVERAGE(J14:J15)</f>
+        <v>6</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" ref="K16:T16" si="3">AVERAGE(K14:K15)</f>
+        <v>4.5124718349999995</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" si="3"/>
+        <v>4.7410406700000003</v>
+      </c>
+      <c r="M16" s="16">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N16" s="16">
+        <f t="shared" si="3"/>
+        <v>1.2432852999999999</v>
+      </c>
+      <c r="O16" s="16">
+        <f t="shared" si="3"/>
+        <v>1.3071960149999999</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="3"/>
+        <v>9.7844975000000001E-2</v>
+      </c>
+      <c r="Q16" s="8">
+        <f t="shared" si="3"/>
+        <v>0.45905573999999999</v>
+      </c>
+      <c r="R16" s="6">
+        <f t="shared" si="3"/>
+        <v>0.33796672500000002</v>
+      </c>
+      <c r="S16" s="12">
+        <f t="shared" si="3"/>
+        <v>9.2601160000000002E-2</v>
+      </c>
+      <c r="T16" s="14">
+        <f t="shared" si="3"/>
+        <v>1.253141E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>100000</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>0.4</v>
+      </c>
+      <c r="I17">
+        <v>0.95</v>
+      </c>
+      <c r="J17" s="9">
+        <v>5</v>
+      </c>
+      <c r="K17" s="9">
+        <v>3.69961027</v>
+      </c>
+      <c r="L17" s="9">
+        <v>3.8936128399999999</v>
+      </c>
+      <c r="M17" s="15">
+        <v>4</v>
+      </c>
+      <c r="N17" s="15">
+        <v>1.6516404</v>
+      </c>
+      <c r="O17" s="15">
+        <v>1.7451121599999999</v>
+      </c>
+      <c r="P17" s="3">
+        <v>7.8688480000000005E-2</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0.46164326999999999</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.36659207999999999</v>
+      </c>
+      <c r="S17" s="11">
+        <v>7.038838E-2</v>
+      </c>
+      <c r="T17" s="13">
+        <v>2.2687780000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>100000</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0.1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>0.45</v>
+      </c>
+      <c r="I18">
+        <v>0.95</v>
+      </c>
+      <c r="J18" s="9">
+        <v>5</v>
+      </c>
+      <c r="K18" s="9">
+        <v>3.6524630400000002</v>
+      </c>
+      <c r="L18" s="9">
+        <v>3.81849573</v>
+      </c>
+      <c r="M18" s="15">
+        <v>4</v>
+      </c>
+      <c r="N18" s="15">
+        <v>1.64926025</v>
+      </c>
+      <c r="O18" s="15">
+        <v>1.7288098999999999</v>
+      </c>
+      <c r="P18" s="3">
+        <v>7.8038479999999993E-2</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0.46911836000000001</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.35911699000000002</v>
+      </c>
+      <c r="S18" s="11">
+        <v>6.9888370000000005E-2</v>
+      </c>
+      <c r="T18" s="13">
+        <v>2.3837799999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="2" customFormat="1">
+      <c r="B19" s="2">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2">
+        <v>9</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J19" s="10">
+        <f>AVERAGE(J17:J18)</f>
+        <v>5</v>
+      </c>
+      <c r="K19" s="10">
+        <f t="shared" ref="K19:T19" si="4">AVERAGE(K17:K18)</f>
+        <v>3.6760366549999999</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="4"/>
+        <v>3.8560542849999999</v>
+      </c>
+      <c r="M19" s="16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N19" s="16">
+        <f t="shared" si="4"/>
+        <v>1.650450325</v>
+      </c>
+      <c r="O19" s="16">
+        <f t="shared" si="4"/>
+        <v>1.7369610299999998</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="4"/>
+        <v>7.8363479999999999E-2</v>
+      </c>
+      <c r="Q19" s="8">
+        <f t="shared" si="4"/>
+        <v>0.465380815</v>
+      </c>
+      <c r="R19" s="6">
+        <f t="shared" si="4"/>
+        <v>0.36285453499999998</v>
+      </c>
+      <c r="S19" s="12">
+        <f t="shared" si="4"/>
+        <v>7.0138375000000003E-2</v>
+      </c>
+      <c r="T19" s="14">
+        <f t="shared" si="4"/>
+        <v>2.3262789999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>100000</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <v>0.95</v>
+      </c>
+      <c r="J20" s="9">
+        <v>4</v>
+      </c>
+      <c r="K20" s="9">
+        <v>2.9107968999999998</v>
+      </c>
+      <c r="L20" s="9">
+        <v>3.0353652100000001</v>
+      </c>
+      <c r="M20" s="15">
+        <v>5</v>
+      </c>
+      <c r="N20" s="15">
+        <v>2.0416728900000001</v>
+      </c>
+      <c r="O20" s="15">
+        <v>2.1480104400000002</v>
+      </c>
+      <c r="P20" s="3">
+        <v>6.6938339999999999E-2</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0.43866798000000001</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.40785510000000003</v>
+      </c>
+      <c r="S20" s="11">
+        <v>5.0738129999999999E-2</v>
+      </c>
+      <c r="T20" s="13">
+        <v>3.5800449999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>100000</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0.1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I21">
+        <v>0.95</v>
+      </c>
+      <c r="J21" s="9">
+        <v>4</v>
+      </c>
+      <c r="K21" s="9">
+        <v>2.9031562599999998</v>
+      </c>
+      <c r="L21" s="9">
+        <v>3.04775105</v>
+      </c>
+      <c r="M21" s="15">
+        <v>5</v>
+      </c>
+      <c r="N21" s="15">
+        <v>2.0310064699999999</v>
+      </c>
+      <c r="O21" s="15">
+        <v>2.14567174</v>
+      </c>
+      <c r="P21" s="3">
+        <v>6.6450830000000002E-2</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0.44375555</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.40430505</v>
+      </c>
+      <c r="S21" s="11">
+        <v>5.093814E-2</v>
+      </c>
+      <c r="T21" s="13">
+        <v>3.455043E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>100000</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0.1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>0.6</v>
+      </c>
+      <c r="I22">
+        <v>0.95</v>
+      </c>
+      <c r="J22" s="9">
+        <v>4</v>
+      </c>
+      <c r="K22" s="9">
+        <v>2.9172735799999998</v>
+      </c>
+      <c r="L22" s="9">
+        <v>3.0535997799999999</v>
+      </c>
+      <c r="M22" s="15">
+        <v>5</v>
+      </c>
+      <c r="N22" s="15">
+        <v>2.0260147000000002</v>
+      </c>
+      <c r="O22" s="15">
+        <v>2.13806421</v>
+      </c>
+      <c r="P22" s="3">
+        <v>6.647583E-2</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>0.43630544999999998</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.41246766000000001</v>
+      </c>
+      <c r="S22" s="11">
+        <v>4.9925619999999997E-2</v>
+      </c>
+      <c r="T22" s="13">
+        <v>3.4825439999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="2" customFormat="1">
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J23" s="10">
+        <f>AVERAGE(J20:J22)</f>
+        <v>4</v>
+      </c>
+      <c r="K23" s="10">
+        <f>AVERAGE(K20:K22)</f>
+        <v>2.9104089133333333</v>
+      </c>
+      <c r="L23" s="10">
+        <f t="shared" ref="L23:T23" si="5">AVERAGE(L20:L22)</f>
+        <v>3.0455720133333331</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="5"/>
+        <v>2.0328980200000002</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" si="5"/>
+        <v>2.1439154633333337</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" si="5"/>
+        <v>6.6621666666666676E-2</v>
+      </c>
+      <c r="Q23" s="10">
+        <f t="shared" si="5"/>
+        <v>0.43957632666666663</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" si="5"/>
+        <v>0.40820926999999996</v>
+      </c>
+      <c r="S23" s="10">
+        <f t="shared" si="5"/>
+        <v>5.0533963333333327E-2</v>
+      </c>
+      <c r="T23" s="10">
+        <f t="shared" si="5"/>
+        <v>3.5058773333333335E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>100000</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <v>0.65</v>
+      </c>
+      <c r="I24">
+        <v>0.95</v>
+      </c>
+      <c r="J24" s="9">
+        <v>3</v>
+      </c>
+      <c r="K24" s="9">
+        <v>2.1895187599999999</v>
+      </c>
+      <c r="L24" s="9">
+        <v>2.2579057599999999</v>
+      </c>
+      <c r="M24" s="15">
+        <v>6</v>
+      </c>
+      <c r="N24" s="15">
+        <v>2.39189337</v>
+      </c>
+      <c r="O24" s="15">
+        <v>2.4969795800000001</v>
+      </c>
+      <c r="P24" s="3">
+        <v>5.902574E-2</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0.37726722000000001</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0.48391855</v>
+      </c>
+      <c r="S24" s="11">
+        <v>3.321292E-2</v>
+      </c>
+      <c r="T24" s="13">
+        <v>4.6575579999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>100000</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0.1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>0.7</v>
+      </c>
+      <c r="I25">
+        <v>0.95</v>
+      </c>
+      <c r="J25" s="9">
+        <v>3</v>
+      </c>
+      <c r="K25" s="9">
+        <v>2.1942527900000002</v>
+      </c>
+      <c r="L25" s="9">
+        <v>2.2771355199999999</v>
+      </c>
+      <c r="M25" s="15">
+        <v>6</v>
+      </c>
+      <c r="N25" s="15">
+        <v>2.39004722</v>
+      </c>
+      <c r="O25" s="15">
+        <v>2.5017261899999998</v>
+      </c>
+      <c r="P25" s="3">
+        <v>5.8825740000000001E-2</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0.37631720000000002</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0.48500606000000002</v>
+      </c>
+      <c r="S25" s="11">
+        <v>3.4662930000000002E-2</v>
+      </c>
+      <c r="T25" s="13">
+        <v>4.5188060000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="2" customFormat="1">
+      <c r="B26" s="2">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2">
+        <v>9</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J26" s="10">
+        <f>AVERAGE(J24:J25)</f>
+        <v>3</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" ref="K26:T26" si="6">AVERAGE(K24:K25)</f>
+        <v>2.1918857750000003</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="6"/>
+        <v>2.2675206399999999</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="N26" s="16">
+        <f t="shared" si="6"/>
+        <v>2.3909702949999998</v>
+      </c>
+      <c r="O26" s="16">
+        <f t="shared" si="6"/>
+        <v>2.499352885</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="6"/>
+        <v>5.8925740000000004E-2</v>
+      </c>
+      <c r="Q26" s="8">
+        <f t="shared" si="6"/>
+        <v>0.37679221000000002</v>
+      </c>
+      <c r="R26" s="6">
+        <f t="shared" si="6"/>
+        <v>0.48446230499999998</v>
+      </c>
+      <c r="S26" s="12">
+        <f t="shared" si="6"/>
+        <v>3.3937925000000001E-2</v>
+      </c>
+      <c r="T26" s="14">
+        <f t="shared" si="6"/>
+        <v>4.5881820000000004E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>100000</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0.1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>0.75</v>
+      </c>
+      <c r="I27">
+        <v>0.95</v>
+      </c>
+      <c r="J27" s="9">
+        <v>2</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1.46415483</v>
+      </c>
+      <c r="L27" s="9">
+        <v>1.5226055300000001</v>
+      </c>
+      <c r="M27" s="15">
+        <v>7</v>
+      </c>
+      <c r="N27" s="15">
+        <v>2.7113103500000002</v>
+      </c>
+      <c r="O27" s="15">
+        <v>2.8499041100000002</v>
+      </c>
+      <c r="P27" s="3">
+        <v>5.4763180000000002E-2</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>0.28140352000000002</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0.59008238000000002</v>
+      </c>
+      <c r="S27" s="11">
+        <v>1.9962750000000001E-2</v>
+      </c>
+      <c r="T27" s="13">
+        <v>5.3788170000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>100000</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0.1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <v>0.8</v>
+      </c>
+      <c r="I28">
+        <v>0.95</v>
+      </c>
+      <c r="J28" s="9">
+        <v>2</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1.4758376200000001</v>
+      </c>
+      <c r="L28" s="9">
+        <v>1.5361255599999999</v>
+      </c>
+      <c r="M28" s="15">
+        <v>7</v>
+      </c>
+      <c r="N28" s="15">
+        <v>2.7090108000000002</v>
+      </c>
+      <c r="O28" s="15">
+        <v>2.8433566300000002</v>
+      </c>
+      <c r="P28" s="3">
+        <v>5.4800689999999999E-2</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>0.27224090000000001</v>
+      </c>
+      <c r="R28" s="5">
+        <v>0.59899499</v>
+      </c>
+      <c r="S28" s="11">
+        <v>2.016275E-2</v>
+      </c>
+      <c r="T28" s="13">
+        <v>5.3800670000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="2" customFormat="1">
+      <c r="B29" s="2">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2">
+        <v>9</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J29" s="10">
+        <f>AVERAGE(J27:J28)</f>
+        <v>2</v>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" ref="K29:T29" si="7">AVERAGE(K27:K28)</f>
+        <v>1.469996225</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" si="7"/>
+        <v>1.5293655450000001</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="N29" s="16">
+        <f t="shared" si="7"/>
+        <v>2.7101605750000002</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" si="7"/>
+        <v>2.8466303700000002</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="7"/>
+        <v>5.4781935000000004E-2</v>
+      </c>
+      <c r="Q29" s="8">
+        <f t="shared" si="7"/>
+        <v>0.27682221000000001</v>
+      </c>
+      <c r="R29" s="6">
+        <f t="shared" si="7"/>
+        <v>0.59453868500000007</v>
+      </c>
+      <c r="S29" s="12">
+        <f t="shared" si="7"/>
+        <v>2.0062750000000001E-2</v>
+      </c>
+      <c r="T29" s="14">
+        <f t="shared" si="7"/>
+        <v>5.3794420000000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>100000</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0.1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+      <c r="H30">
+        <v>0.85</v>
+      </c>
+      <c r="I30">
+        <v>0.95</v>
+      </c>
+      <c r="J30" s="9">
+        <v>1</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0.74722944999999996</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0.77773787999999999</v>
+      </c>
+      <c r="M30" s="15">
+        <v>8</v>
+      </c>
+      <c r="N30" s="15">
+        <v>3.0408806099999999</v>
+      </c>
+      <c r="O30" s="15">
+        <v>3.1865828199999999</v>
+      </c>
+      <c r="P30" s="3">
+        <v>5.56882E-2</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>0.14616433000000001</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0.73769671999999997</v>
+      </c>
+      <c r="S30" s="11">
+        <v>9.9626200000000002E-3</v>
+      </c>
+      <c r="T30" s="13">
+        <v>5.0488129999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>100000</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0.1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31">
         <v>0.9</v>
       </c>
-      <c r="J11">
+      <c r="I31">
+        <v>0.95</v>
+      </c>
+      <c r="J31" s="9">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0.74707226999999998</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0.78043129</v>
+      </c>
+      <c r="M31" s="15">
+        <v>8</v>
+      </c>
+      <c r="N31" s="15">
+        <v>3.0757402699999998</v>
+      </c>
+      <c r="O31" s="15">
+        <v>3.2447202499999999</v>
+      </c>
+      <c r="P31" s="3">
+        <v>5.3638169999999999E-2</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>0.14685184000000001</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0.73985924999999997</v>
+      </c>
+      <c r="S31" s="11">
+        <v>9.8001200000000007E-3</v>
+      </c>
+      <c r="T31" s="13">
+        <v>4.9850619999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="2" customFormat="1">
+      <c r="B32" s="2">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2">
+        <v>9</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J32" s="10">
+        <f>AVERAGE(J30:J31)</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="10">
+        <f t="shared" ref="K32:T32" si="8">AVERAGE(K30:K31)</f>
+        <v>0.74715085999999997</v>
+      </c>
+      <c r="L32" s="10">
+        <f t="shared" si="8"/>
+        <v>0.779084585</v>
+      </c>
+      <c r="M32" s="16">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="16">
+        <f t="shared" si="8"/>
+        <v>3.0583104399999996</v>
+      </c>
+      <c r="O32" s="16">
+        <f t="shared" si="8"/>
+        <v>3.2156515350000001</v>
+      </c>
+      <c r="P32" s="4">
+        <f t="shared" si="8"/>
+        <v>5.4663185000000003E-2</v>
+      </c>
+      <c r="Q32" s="8">
+        <f t="shared" si="8"/>
+        <v>0.14650808500000001</v>
+      </c>
+      <c r="R32" s="6">
+        <f t="shared" si="8"/>
+        <v>0.73877798500000003</v>
+      </c>
+      <c r="S32" s="12">
+        <f t="shared" si="8"/>
+        <v>9.8813700000000004E-3</v>
+      </c>
+      <c r="T32" s="14">
+        <f t="shared" si="8"/>
+        <v>5.0169375000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>100000</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0.1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>0.95</v>
+      </c>
+      <c r="I33">
+        <v>0.95</v>
+      </c>
+      <c r="J33" s="9">
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="K33" s="9">
         <v>0</v>
       </c>
-      <c r="L11">
+      <c r="L33" s="9">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>6</v>
-      </c>
-      <c r="N11">
-        <v>2.1215729400000001</v>
-      </c>
-      <c r="O11">
-        <v>2.3520145499999998</v>
-      </c>
-      <c r="P11">
-        <v>9.6147629999999998E-2</v>
-      </c>
-      <c r="Q11">
-        <v>0.26287829000000001</v>
-      </c>
-      <c r="R11">
-        <v>0.41393374999999999</v>
-      </c>
-      <c r="S11">
-        <v>0.19568995</v>
-      </c>
-      <c r="T11">
-        <v>3.1350389999999999E-2</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="0"/>
-        <v>1.0000000099999999</v>
+      <c r="M33" s="15">
+        <v>9</v>
+      </c>
+      <c r="N33" s="15">
+        <v>3.57855407</v>
+      </c>
+      <c r="O33" s="15">
+        <v>3.7731708400000001</v>
+      </c>
+      <c r="P33" s="3">
+        <v>6.7925849999999996E-2</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0.93207415000000005</v>
+      </c>
+      <c r="S33" s="11">
+        <v>0</v>
+      </c>
+      <c r="T33" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>100000</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0.1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0.95</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0</v>
+      </c>
+      <c r="M34" s="15">
+        <v>9</v>
+      </c>
+      <c r="N34" s="15">
+        <v>3.6121658999999999</v>
+      </c>
+      <c r="O34" s="15">
+        <v>3.8051594</v>
+      </c>
+      <c r="P34" s="3">
+        <v>6.872586E-2</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>0</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0.93127413999999997</v>
+      </c>
+      <c r="S34" s="11">
+        <v>0</v>
+      </c>
+      <c r="T34" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="2" customFormat="1">
+      <c r="B35" s="2">
+        <v>20</v>
+      </c>
+      <c r="C35" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="2">
+        <v>9</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J35" s="10">
+        <f>AVERAGE(J33:J34)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="shared" ref="K35:T35" si="9">AVERAGE(K33:K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="16">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="N35" s="16">
+        <f t="shared" si="9"/>
+        <v>3.595359985</v>
+      </c>
+      <c r="O35" s="16">
+        <f t="shared" si="9"/>
+        <v>3.7891651199999998</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="9"/>
+        <v>6.8325854999999991E-2</v>
+      </c>
+      <c r="Q35" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="6">
+        <f t="shared" si="9"/>
+        <v>0.93167414500000001</v>
+      </c>
+      <c r="S35" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3129,6 +4397,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>